--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/63/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/63/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001001001001001001</v>
+        <v>0.5627562756275628</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>556.5565565565566</v>
+        <v>1952.685268526853</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04274274274274274</v>
+        <v>0.09513951395139514</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1381381381381381</v>
+        <v>0.4811481148114812</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570.5705705705706</v>
+        <v>949.1949194919492</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1201201201201</v>
+        <v>231.3231323132313</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>498.4984984984985</v>
+        <v>334.3996399639964</v>
       </c>
     </row>
   </sheetData>
